--- a/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36B13_R-Edad-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2287863283053056</v>
+        <v>0.2235398784776639</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08650995481828087</v>
+        <v>0.07934995942542911</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1664622681827384</v>
+        <v>0.1652814607574981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.07385896826187283</v>
+        <v>0.0733342842821415</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2061826957731022</v>
+        <v>0.2107699888667448</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.09251828221110388</v>
+        <v>0.0915664493344903</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3204245198087997</v>
+        <v>0.3137207767312308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1919729509512401</v>
+        <v>0.1920416757239212</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2451064034434176</v>
+        <v>0.247842009827295</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1626961135720109</v>
+        <v>0.1647370274119367</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2684903832316775</v>
+        <v>0.2691171530629666</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1605002790969442</v>
+        <v>0.1600167264417814</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1890505210487689</v>
+        <v>0.1900872655491628</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1059717833360529</v>
+        <v>0.1066971093963207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.09461468214055274</v>
+        <v>0.09448087055763478</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01983503886452255</v>
+        <v>0.02062298653865783</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1514709360334435</v>
+        <v>0.1500186324332901</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06436597567268532</v>
+        <v>0.06730625638227518</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2563661572989276</v>
+        <v>0.2579120151334454</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1885082079056929</v>
+        <v>0.1891575686999112</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1509544602920298</v>
+        <v>0.1469505158906242</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.05551743856719057</v>
+        <v>0.05410286316179245</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1960805967393432</v>
+        <v>0.1949966093482692</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1108800998424392</v>
+        <v>0.1160871208261857</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.09947399191422837</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.06413411251093315</v>
+        <v>0.06413411251093316</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09506649916356302</v>
+        <v>0.09377706823382931</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05473968160568601</v>
+        <v>0.05342013740383787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06089896426080449</v>
+        <v>0.06213556644123017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.03927794775181882</v>
+        <v>0.03939953404888733</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08317340928903839</v>
+        <v>0.08415379288367905</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05071654954100856</v>
+        <v>0.05111041682967635</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1454442466235627</v>
+        <v>0.1442298199194921</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09927856004361187</v>
+        <v>0.09911936643824726</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1032882279228554</v>
+        <v>0.104293763359511</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.07132246624637321</v>
+        <v>0.07071262226420313</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1163568633824122</v>
+        <v>0.1165810870016758</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07793493221725685</v>
+        <v>0.07874343465293013</v>
       </c>
     </row>
     <row r="13">
@@ -858,7 +858,7 @@
         <v>0.07818830035084996</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.07016484580672469</v>
+        <v>0.0701648458067247</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.05140161328198997</v>
@@ -870,7 +870,7 @@
         <v>0.06478613811042108</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.05336991260535685</v>
+        <v>0.05336991260535687</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.05803832495073909</v>
+        <v>0.05915762928864114</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0528270849484144</v>
+        <v>0.05116638577573508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0357659011088774</v>
+        <v>0.03657768503961872</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02761975082739265</v>
+        <v>0.02626093330683821</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05172112938174575</v>
+        <v>0.05132248396011538</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04348335549550466</v>
+        <v>0.04260154011074908</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0996033594558048</v>
+        <v>0.1044552026524589</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.09351504923482576</v>
+        <v>0.09319178346998548</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.070841794507068</v>
+        <v>0.07188209014890402</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.04961035778029031</v>
+        <v>0.05009976227233576</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.08044973807408001</v>
+        <v>0.0798921974824368</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.06642329535150032</v>
+        <v>0.06565484739325925</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>0.05244975568721685</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.04517910871142331</v>
+        <v>0.04517910871142332</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.04517357873605564</v>
@@ -952,7 +952,7 @@
         <v>0.04871671144421368</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.03055032910788009</v>
+        <v>0.03055032910788008</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.03536813999793719</v>
+        <v>0.03409401035759316</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03134263135069394</v>
+        <v>0.03163849369167801</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02925924043733497</v>
+        <v>0.02647696641425955</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009670987184731692</v>
+        <v>0.008761315721581307</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03500792935502522</v>
+        <v>0.03525072955426516</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02233619866120114</v>
+        <v>0.02185139010033718</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0785002364685732</v>
+        <v>0.07703970942754841</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.066226892803047</v>
+        <v>0.06456339108880831</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07154195646786869</v>
+        <v>0.0691707607282621</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02661684128548391</v>
+        <v>0.02486950215067343</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06555727566466113</v>
+        <v>0.0654618522618528</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.04105048049003521</v>
+        <v>0.0414624737192061</v>
       </c>
     </row>
     <row r="19">
@@ -1034,7 +1034,7 @@
         <v>0.03370071633055994</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.023693391339721</v>
+        <v>0.02369339133972101</v>
       </c>
     </row>
     <row r="20">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.02030066109714597</v>
+        <v>0.02073513426788169</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02074824966606425</v>
+        <v>0.02022026401622515</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01583437879105199</v>
+        <v>0.01618693919137423</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.007145220753074649</v>
+        <v>0.007564836582634515</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02230634451182274</v>
+        <v>0.02260685279136118</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.01648385917245915</v>
+        <v>0.01581599579874979</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0625072502072343</v>
+        <v>0.06036851931542331</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.05179078196228142</v>
+        <v>0.05094983844012377</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05262774491625627</v>
+        <v>0.05096348377217456</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.02542507154451744</v>
+        <v>0.02486142675494504</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04862464337934563</v>
+        <v>0.05074004311546799</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0345190412012715</v>
+        <v>0.03441337140836291</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>0.02276106068058439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.02009043645628405</v>
+        <v>0.02009043645628404</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.02784135935882048</v>
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01655041024518749</v>
+        <v>0.01868799681691697</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.007593114463339435</v>
+        <v>0.00649096363035772</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.009527505824436903</v>
+        <v>0.01009660734676265</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.01187994036979404</v>
+        <v>0.01172293790331041</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.01577542954634592</v>
+        <v>0.01735054204343019</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01193911625292901</v>
+        <v>0.01138774336349138</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.06430131114244088</v>
+        <v>0.06562839256323325</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.03245639926088544</v>
+        <v>0.03394666972966499</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04515818426023396</v>
+        <v>0.04645261799085813</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03837046781598169</v>
+        <v>0.03453842048377633</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.04310189624353659</v>
+        <v>0.04553286466295962</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02812576647071549</v>
+        <v>0.02937309668930214</v>
       </c>
     </row>
     <row r="25">
@@ -1198,7 +1198,7 @@
         <v>0.1008336839739633</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>0.05626410501267202</v>
+        <v>0.05626410501267201</v>
       </c>
     </row>
     <row r="26">
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1139221344040904</v>
+        <v>0.1128025675194444</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.06521636856187842</v>
+        <v>0.06365324646364223</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07054665941004624</v>
+        <v>0.07054893871464281</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.03289880444564754</v>
+        <v>0.03291259571586524</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.09399777843838782</v>
+        <v>0.09334744705178009</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.05021039361473768</v>
+        <v>0.0499498918271697</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1365019393090566</v>
+        <v>0.1359031338868905</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08625461911091466</v>
+        <v>0.08657466552482941</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.08764291647142873</v>
+        <v>0.08787261539516761</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0458258849606225</v>
+        <v>0.0455356586709189</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.1085725741294691</v>
+        <v>0.108144241672606</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06329142376869849</v>
+        <v>0.06236735809112513</v>
       </c>
     </row>
     <row r="28">
@@ -1440,22 +1440,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>95967</v>
+        <v>93767</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>35278</v>
+        <v>32358</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>65716</v>
+        <v>65250</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>26664</v>
+        <v>26475</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>167883</v>
+        <v>171618</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>71129</v>
+        <v>70397</v>
       </c>
     </row>
     <row r="7">
@@ -1466,22 +1466,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>134406</v>
+        <v>131594</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>78285</v>
+        <v>78313</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>96764</v>
+        <v>97844</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>58736</v>
+        <v>59473</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>218617</v>
+        <v>219127</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>123394</v>
+        <v>123022</v>
       </c>
     </row>
     <row r="8">
@@ -1548,22 +1548,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>111464</v>
+        <v>112075</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>50537</v>
+        <v>50883</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>53236</v>
+        <v>53161</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>9939</v>
+        <v>10334</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>174534</v>
+        <v>172861</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>62948</v>
+        <v>65824</v>
       </c>
     </row>
     <row r="11">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>151153</v>
+        <v>152064</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>89898</v>
+        <v>90207</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>84936</v>
+        <v>82684</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27819</v>
+        <v>27110</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>225936</v>
+        <v>224687</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>108438</v>
+        <v>113530</v>
       </c>
     </row>
     <row r="12">
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>63257</v>
+        <v>62399</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33984</v>
+        <v>33165</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>40100</v>
+        <v>40914</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>24371</v>
+        <v>24446</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>110111</v>
+        <v>111409</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>62955</v>
+        <v>63444</v>
       </c>
     </row>
     <row r="15">
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>96778</v>
+        <v>95970</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>61636</v>
+        <v>61537</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>68012</v>
+        <v>68674</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>44253</v>
+        <v>43875</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>154041</v>
+        <v>154338</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>96741</v>
+        <v>97745</v>
       </c>
     </row>
     <row r="16">
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>37430</v>
+        <v>38152</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>36916</v>
+        <v>35756</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>23097</v>
+        <v>23621</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>20247</v>
+        <v>19251</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>66756</v>
+        <v>66242</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>62263</v>
+        <v>61001</v>
       </c>
     </row>
     <row r="19">
@@ -1790,22 +1790,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>64236</v>
+        <v>67366</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>65350</v>
+        <v>65124</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>45748</v>
+        <v>46420</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>36368</v>
+        <v>36727</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>103836</v>
+        <v>103117</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>95111</v>
+        <v>94011</v>
       </c>
     </row>
     <row r="20">
@@ -1872,22 +1872,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>16637</v>
+        <v>16038</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>19045</v>
+        <v>19224</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14501</v>
+        <v>13122</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5869</v>
+        <v>5317</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>33818</v>
+        <v>34052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>27126</v>
+        <v>26537</v>
       </c>
     </row>
     <row r="23">
@@ -1898,22 +1898,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>36926</v>
+        <v>36239</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>40241</v>
+        <v>39230</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>35457</v>
+        <v>34281</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>16152</v>
+        <v>15091</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>63328</v>
+        <v>63236</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>49854</v>
+        <v>50354</v>
       </c>
     </row>
     <row r="24">
@@ -1980,22 +1980,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>6747</v>
+        <v>6891</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>8446</v>
+        <v>8231</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5950</v>
+        <v>6082</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>3138</v>
+        <v>3322</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15795</v>
+        <v>16007</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13949</v>
+        <v>13384</v>
       </c>
     </row>
     <row r="27">
@@ -2006,22 +2006,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20773</v>
+        <v>20062</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>21083</v>
+        <v>20741</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19775</v>
+        <v>19149</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11166</v>
+        <v>10918</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>34430</v>
+        <v>35928</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>29212</v>
+        <v>29122</v>
       </c>
     </row>
     <row r="28">
@@ -2088,22 +2088,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4165</v>
+        <v>4703</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2351</v>
+        <v>2010</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>3698</v>
+        <v>3919</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>5511</v>
+        <v>5439</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>10093</v>
+        <v>11100</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>9236</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="31">
@@ -2114,22 +2114,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>16182</v>
+        <v>16516</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>10050</v>
+        <v>10511</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17526</v>
+        <v>18029</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>17801</v>
+        <v>16023</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>27575</v>
+        <v>29130</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>21757</v>
+        <v>22722</v>
       </c>
     </row>
     <row r="32">
@@ -2196,22 +2196,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>384347</v>
+        <v>380569</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>230128</v>
+        <v>224612</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>248405</v>
+        <v>248413</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>122566</v>
+        <v>122618</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>648106</v>
+        <v>643622</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>364238</v>
+        <v>362349</v>
       </c>
     </row>
     <row r="35">
@@ -2222,22 +2222,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>460525</v>
+        <v>458505</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>304365</v>
+        <v>305494</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>308604</v>
+        <v>309412</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>170727</v>
+        <v>169646</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>748598</v>
+        <v>745645</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>459131</v>
+        <v>452428</v>
       </c>
     </row>
     <row r="36">
